--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E7462C-5FF5-1347-BADC-ED11FF835DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D359B1E-86F2-5F46-8983-854BE3C43C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Publicação</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Pesquisa oferece tratamento para idosos que tenham dor lombar crônica</t>
+  </si>
+  <si>
+    <t>Estudo IDOR é premiado na Itália</t>
+  </si>
+  <si>
+    <t>https://www.rededorsaoluiz.com.br/instituto/idor/estudo-idor-e-premiado-na-italia/</t>
   </si>
 </sst>
 </file>
@@ -915,7 +921,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDDD696-0EC2-6943-8192-402E1F595E40}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -939,12 +945,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>43031</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>42891</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -953,7 +970,8 @@
     <sortCondition descending="1" ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A6B209F8-CA0A-3F4F-9DCD-1350BD167F74}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{59933944-F460-4849-A2FD-E3B84790F8B4}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{38A855CF-E23F-BB42-8B24-74E7A9EF8CEF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D359B1E-86F2-5F46-8983-854BE3C43C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73C1B42-3EE3-F84A-AB8E-08649E617428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Publicação</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>https://www.rededorsaoluiz.com.br/instituto/idor/estudo-idor-e-premiado-na-italia/</t>
+  </si>
+  <si>
+    <t>PPGFisio divulga convite para Aula Inaugural 2023.2</t>
+  </si>
+  <si>
+    <t>https://ppgfisio.ufc.br/pt/ppgfisio-divulga-convite-para-aula-inaugural-2023-2/</t>
+  </si>
+  <si>
+    <t>PPGFisio divulga lista de inscrições confirmadas para Capacitação “Análise de Dados” – Aula Inaugural 2023.2</t>
+  </si>
+  <si>
+    <t>https://ppgfisio.ufc.br/pt/ppgfisio-divulga-lista-de-inscricoes-confirmadas-para-capacitacao-analise-de-dados/</t>
   </si>
 </sst>
 </file>
@@ -576,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E4CB5A-363D-4943-B899-5CE4DD705651}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,18 +612,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>45142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>45035</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4CB9679B-6916-5546-81A0-BE462F01C707}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{4CB9679B-6916-5546-81A0-BE462F01C707}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{599D6024-A8A7-224F-8F2A-DD4E4DD3ADEF}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{31A515F2-ECBE-C149-A96D-28D5AE324BD8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73C1B42-3EE3-F84A-AB8E-08649E617428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C12B0B-EF19-E540-BDC4-BFAD29E181AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Publicação</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>https://ppgfisio.ufc.br/pt/ppgfisio-divulga-lista-de-inscricoes-confirmadas-para-capacitacao-analise-de-dados/</t>
+  </si>
+  <si>
+    <t>Neuromodulation for COVID-19, Neuromodec update 9: More encouraging studies</t>
+  </si>
+  <si>
+    <t>https://neuromodec.org/2023/05/neuromodulation-for-covid-update-more-ecouraging-studies/</t>
   </si>
 </sst>
 </file>
@@ -588,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E4CB5A-363D-4943-B899-5CE4DD705651}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,20 +640,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>45035</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{4CB9679B-6916-5546-81A0-BE462F01C707}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{4CB9679B-6916-5546-81A0-BE462F01C707}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{599D6024-A8A7-224F-8F2A-DD4E4DD3ADEF}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{31A515F2-ECBE-C149-A96D-28D5AE324BD8}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{4E36A3D7-54FB-554F-8112-AB155876C9B8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C12B0B-EF19-E540-BDC4-BFAD29E181AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C542D095-1698-0A43-A04B-814E127C6631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="16" r:id="rId1"/>
-    <sheet name="2022" sheetId="15" r:id="rId2"/>
-    <sheet name="2019" sheetId="8" r:id="rId3"/>
-    <sheet name="2018" sheetId="7" r:id="rId4"/>
-    <sheet name="2017" sheetId="6" r:id="rId5"/>
-    <sheet name="2015" sheetId="11" r:id="rId6"/>
-    <sheet name="2013" sheetId="9" r:id="rId7"/>
-    <sheet name="2010" sheetId="14" r:id="rId8"/>
+    <sheet name="2024" sheetId="17" r:id="rId1"/>
+    <sheet name="2023" sheetId="16" r:id="rId2"/>
+    <sheet name="2022" sheetId="15" r:id="rId3"/>
+    <sheet name="2019" sheetId="8" r:id="rId4"/>
+    <sheet name="2018" sheetId="7" r:id="rId5"/>
+    <sheet name="2017" sheetId="6" r:id="rId6"/>
+    <sheet name="2015" sheetId="11" r:id="rId7"/>
+    <sheet name="2013" sheetId="9" r:id="rId8"/>
+    <sheet name="2010" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Publicação</t>
   </si>
@@ -218,6 +219,12 @@
   </si>
   <si>
     <t>https://neuromodec.org/2023/05/neuromodulation-for-covid-update-more-ecouraging-studies/</t>
+  </si>
+  <si>
+    <t>https://mu-plovdiv.bg/prepodavatel-ot-mu-plovdiv-izdade-ang/</t>
+  </si>
+  <si>
+    <t>Преподавател от МУ-Пловдив издаде англоезичен учебник по физикална и рехабилитационна медицина</t>
   </si>
 </sst>
 </file>
@@ -593,10 +600,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E4CB5A-363D-4943-B899-5CE4DD705651}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -618,6 +627,49 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7FAF5D77-80BB-4A4B-9BD5-479AE66A7FCF}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E4CB5A-363D-4943-B899-5CE4DD705651}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>45142</v>
       </c>
       <c r="B2" t="s">
@@ -671,7 +723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2737D954-942D-7D47-B162-11BE628278CF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -738,7 +790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A0B706-7D6A-0B4B-9FAF-9D5F61DDE500}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -831,7 +883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065AFBF0-87AC-DF42-878B-09D54E47C095}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -973,7 +1025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDDD696-0EC2-6943-8192-402E1F595E40}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1031,7 +1083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D54DF-EE82-5F4E-81E4-885ED173C8CE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1077,7 +1129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64BFB7-250C-AD46-B331-D8891189F904}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1135,7 +1187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8838102D-5892-CA4F-8A73-3527BD37268F}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C542D095-1698-0A43-A04B-814E127C6631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BABEC3-81AE-A340-8100-69B3B296D108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Publicação</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>Преподавател от МУ-Пловдив издаде англоезичен учебник по физикална и рехабилитационна медицина</t>
+  </si>
+  <si>
+    <t>Curso de Fisioterapia da UENP ganha dois novos professores</t>
+  </si>
+  <si>
+    <t>https://www.aen.pr.gov.br/Noticia/Curso-de-Fisioterapia-da-UENP-ganha-dois-novos-professores</t>
   </si>
 </sst>
 </file>
@@ -725,7 +731,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2737D954-942D-7D47-B162-11BE628278CF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -780,11 +786,23 @@
         <v>43</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>44578</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{2B8F926B-B369-D446-AE6A-1A6D21318EEA}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{3C353235-8DAB-1F42-87F9-8894F5B95111}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{4A73298F-F020-2040-84A4-55E4508C10D3}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{F8AE0D44-64B2-E946-8556-AA2357702FB8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BABEC3-81AE-A340-8100-69B3B296D108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95ECFF2-A7F9-D64D-883A-E55D0EFF9504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="17" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="2013" sheetId="9" r:id="rId8"/>
     <sheet name="2010" sheetId="14" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>Publicação</t>
   </si>
@@ -231,6 +233,18 @@
   </si>
   <si>
     <t>https://www.aen.pr.gov.br/Noticia/Curso-de-Fisioterapia-da-UENP-ganha-dois-novos-professores</t>
+  </si>
+  <si>
+    <t>https://www.into.saude.gov.br/pesquisa/publicacoes/artigos-cientificos/566-neuropathic-like-symptoms-and-central-sensitization-related-signs-and-symptoms-negatively-affect-the-functional-performance-of-patients-with-knee-osteoarthritis-a-cross-sectional-study</t>
+  </si>
+  <si>
+    <t>Neuropathic-like symptoms and central sensitization related signs and symptoms negatively affect the functional performance of patients with knee osteoarthritis - a cross-sectional study</t>
+  </si>
+  <si>
+    <t>Anterior component of Y-Balance test is correlated to ankle dorsiflexion range of motion in futsal players: A cross-sectional study.</t>
+  </si>
+  <si>
+    <t>https://www.into.saude.gov.br/pesquisa/publicacoes/artigos-cientificos/985-anterior-component-of-y-balance-test-is-correlated-to-ankle-dorsiflexion-range-of-motion-in-futsal-players-a-cross-sectional-study</t>
   </si>
 </sst>
 </file>
@@ -607,11 +621,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -633,18 +645,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>45396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>45322</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{7FAF5D77-80BB-4A4B-9BD5-479AE66A7FCF}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{7FAF5D77-80BB-4A4B-9BD5-479AE66A7FCF}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://www.into.saude.gov.br/pesquisa/publicacoes/artigos-cientificos/566-neuropathic-like-symptoms-and-central-sensitization-related-signs-and-symptoms-negatively-affect-the-functional-performance-of-patients-with-knee-osteoarthritis-a-cross-sectional-study" xr:uid="{7A3518AB-36A9-3E4F-A53C-64CBF87177FF}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{2419A15F-AA7D-5241-8696-A1B517F17416}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95ECFF2-A7F9-D64D-883A-E55D0EFF9504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B55D19-D12B-D848-8292-DBC895692808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Publicação</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>https://www.into.saude.gov.br/pesquisa/publicacoes/artigos-cientificos/985-anterior-component-of-y-balance-test-is-correlated-to-ankle-dorsiflexion-range-of-motion-in-futsal-players-a-cross-sectional-study</t>
+  </si>
+  <si>
+    <t>Não existe postura ideal? Fisioterapeuta explica</t>
+  </si>
+  <si>
+    <t>https://www.bonsfluidos.com.br/autoconhecimento/nao-existe-postura-ideal-fisioterapeuta-explica.phtml</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,42 +651,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>45396</v>
+        <v>45416</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>45372</v>
+        <v>45396</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
+        <v>45372</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>45322</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{7FAF5D77-80BB-4A4B-9BD5-479AE66A7FCF}"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://www.into.saude.gov.br/pesquisa/publicacoes/artigos-cientificos/566-neuropathic-like-symptoms-and-central-sensitization-related-signs-and-symptoms-negatively-affect-the-functional-performance-of-patients-with-knee-osteoarthritis-a-cross-sectional-study" xr:uid="{7A3518AB-36A9-3E4F-A53C-64CBF87177FF}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{2419A15F-AA7D-5241-8696-A1B517F17416}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{7FAF5D77-80BB-4A4B-9BD5-479AE66A7FCF}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.into.saude.gov.br/pesquisa/publicacoes/artigos-cientificos/566-neuropathic-like-symptoms-and-central-sensitization-related-signs-and-symptoms-negatively-affect-the-functional-performance-of-patients-with-knee-osteoarthritis-a-cross-sectional-study" xr:uid="{7A3518AB-36A9-3E4F-A53C-64CBF87177FF}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2419A15F-AA7D-5241-8696-A1B517F17416}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{56BF22BC-FD68-4844-A29B-117A2EDDAA13}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C09A143-722E-6B41-A6C4-01DD61B2DAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65129191-91CA-CE48-952F-568EDACFAB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>Publicação</t>
   </si>
@@ -128,15 +128,9 @@
     <t>Take a step back to understand muscle behaviour in chronic low back pain</t>
   </si>
   <si>
-    <t>https://relief.news/2018/04/16/muscle-behaviour-back-pain/</t>
-  </si>
-  <si>
     <t>Text neck is not a pain in the neck</t>
   </si>
   <si>
-    <t>https://relief.news/2018/11/08/pain-education-children-book/</t>
-  </si>
-  <si>
     <t>A Journey to Learn about Pain – a book about pain education for children</t>
   </si>
   <si>
@@ -270,6 +264,27 @@
   </si>
   <si>
     <t>2010</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>https://www.iasp-pain.org/publications/relief-news/article/pain-education-children-book/</t>
+  </si>
+  <si>
+    <t>https://www.iasp-pain.org/publications/relief-news/article/muscle-behaviour-back-pain/</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>Bulgária</t>
   </si>
 </sst>
 </file>
@@ -642,19 +657,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="158.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="174.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,406 +680,508 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C34" r:id="rId1" xr:uid="{7FAF5D77-80BB-4A4B-9BD5-479AE66A7FCF}"/>
-    <hyperlink ref="C32" r:id="rId2" display="https://www.into.saude.gov.br/pesquisa/publicacoes/artigos-cientificos/566-neuropathic-like-symptoms-and-central-sensitization-related-signs-and-symptoms-negatively-affect-the-functional-performance-of-patients-with-knee-osteoarthritis-a-cross-sectional-study" xr:uid="{7A3518AB-36A9-3E4F-A53C-64CBF87177FF}"/>
-    <hyperlink ref="C33" r:id="rId3" xr:uid="{2419A15F-AA7D-5241-8696-A1B517F17416}"/>
-    <hyperlink ref="C31" r:id="rId4" xr:uid="{56BF22BC-FD68-4844-A29B-117A2EDDAA13}"/>
-    <hyperlink ref="C30" r:id="rId5" xr:uid="{4CB9679B-6916-5546-81A0-BE462F01C707}"/>
-    <hyperlink ref="C28" r:id="rId6" xr:uid="{599D6024-A8A7-224F-8F2A-DD4E4DD3ADEF}"/>
-    <hyperlink ref="C27" r:id="rId7" xr:uid="{31A515F2-ECBE-C149-A96D-28D5AE324BD8}"/>
-    <hyperlink ref="C29" r:id="rId8" xr:uid="{4E36A3D7-54FB-554F-8112-AB155876C9B8}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{2B8F926B-B369-D446-AE6A-1A6D21318EEA}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{3C353235-8DAB-1F42-87F9-8894F5B95111}"/>
-    <hyperlink ref="C23" r:id="rId11" xr:uid="{4A73298F-F020-2040-84A4-55E4508C10D3}"/>
-    <hyperlink ref="C26" r:id="rId12" xr:uid="{F8AE0D44-64B2-E946-8556-AA2357702FB8}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{EABD1383-6C5F-234B-9594-558C0F9AC46E}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{9AAE8C4B-1B0F-3E44-B283-746283EC2E9D}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{E0D00FB4-4C96-D446-9163-7DF716F9CD67}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{796EEEC2-1766-FF4D-AC18-FD885BC3DCA6}"/>
-    <hyperlink ref="C13" r:id="rId17" xr:uid="{DC997CD0-5B81-654C-A1FD-C1989D74FD3B}"/>
-    <hyperlink ref="C10" r:id="rId18" xr:uid="{FF9F8AF8-A9E3-D940-B570-AD55F10BFCDA}"/>
-    <hyperlink ref="C11" r:id="rId19" xr:uid="{F7159C91-5E0A-8E40-9895-9643EC15B863}"/>
-    <hyperlink ref="C14" r:id="rId20" xr:uid="{7F25CA0A-5C43-004A-A393-E421BFACAA52}"/>
-    <hyperlink ref="C15" r:id="rId21" xr:uid="{9D0342E2-4A4F-8541-9187-F591B7B95F18}"/>
-    <hyperlink ref="C12" r:id="rId22" xr:uid="{5EC9057E-7E2F-054B-9BFA-4BB8E98B0DD0}"/>
-    <hyperlink ref="C17" r:id="rId23" xr:uid="{C3A5539B-6849-D945-A7BB-77A7EDC4D3D9}"/>
-    <hyperlink ref="C16" r:id="rId24" xr:uid="{60BB5B0F-DE3A-8D43-A652-FADFFD64FE25}"/>
-    <hyperlink ref="C9" r:id="rId25" xr:uid="{3073512B-F9DC-A14B-B3EA-C2014BF423A4}"/>
-    <hyperlink ref="C8" r:id="rId26" xr:uid="{59933944-F460-4849-A2FD-E3B84790F8B4}"/>
-    <hyperlink ref="C7" r:id="rId27" xr:uid="{38A855CF-E23F-BB42-8B24-74E7A9EF8CEF}"/>
-    <hyperlink ref="C6" r:id="rId28" xr:uid="{15DC309C-7C10-9A4F-A7E8-F04B802166B3}"/>
-    <hyperlink ref="C5" r:id="rId29" xr:uid="{154F6F6A-01A7-864B-B90A-A1CFB08BCAAF}"/>
-    <hyperlink ref="C4" r:id="rId30" xr:uid="{E7F8E955-587A-FA49-BF00-E332D354CADE}"/>
-    <hyperlink ref="C3" r:id="rId31" xr:uid="{982898E0-BA38-3040-B6A2-D3091E7EA3F3}"/>
-    <hyperlink ref="C2" r:id="rId32" xr:uid="{1AE7371D-46D4-D247-9709-E64F1333C37F}"/>
+    <hyperlink ref="D34" r:id="rId1" xr:uid="{7FAF5D77-80BB-4A4B-9BD5-479AE66A7FCF}"/>
+    <hyperlink ref="D32" r:id="rId2" display="https://www.into.saude.gov.br/pesquisa/publicacoes/artigos-cientificos/566-neuropathic-like-symptoms-and-central-sensitization-related-signs-and-symptoms-negatively-affect-the-functional-performance-of-patients-with-knee-osteoarthritis-a-cross-sectional-study" xr:uid="{7A3518AB-36A9-3E4F-A53C-64CBF87177FF}"/>
+    <hyperlink ref="D33" r:id="rId3" xr:uid="{2419A15F-AA7D-5241-8696-A1B517F17416}"/>
+    <hyperlink ref="D31" r:id="rId4" xr:uid="{56BF22BC-FD68-4844-A29B-117A2EDDAA13}"/>
+    <hyperlink ref="D30" r:id="rId5" xr:uid="{4CB9679B-6916-5546-81A0-BE462F01C707}"/>
+    <hyperlink ref="D28" r:id="rId6" xr:uid="{599D6024-A8A7-224F-8F2A-DD4E4DD3ADEF}"/>
+    <hyperlink ref="D27" r:id="rId7" xr:uid="{31A515F2-ECBE-C149-A96D-28D5AE324BD8}"/>
+    <hyperlink ref="D29" r:id="rId8" xr:uid="{4E36A3D7-54FB-554F-8112-AB155876C9B8}"/>
+    <hyperlink ref="D25" r:id="rId9" xr:uid="{2B8F926B-B369-D446-AE6A-1A6D21318EEA}"/>
+    <hyperlink ref="D24" r:id="rId10" xr:uid="{3C353235-8DAB-1F42-87F9-8894F5B95111}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{4A73298F-F020-2040-84A4-55E4508C10D3}"/>
+    <hyperlink ref="D26" r:id="rId12" xr:uid="{F8AE0D44-64B2-E946-8556-AA2357702FB8}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{EABD1383-6C5F-234B-9594-558C0F9AC46E}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{9AAE8C4B-1B0F-3E44-B283-746283EC2E9D}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{E0D00FB4-4C96-D446-9163-7DF716F9CD67}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{796EEEC2-1766-FF4D-AC18-FD885BC3DCA6}"/>
+    <hyperlink ref="D13" r:id="rId17" xr:uid="{DC997CD0-5B81-654C-A1FD-C1989D74FD3B}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{FF9F8AF8-A9E3-D940-B570-AD55F10BFCDA}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{F7159C91-5E0A-8E40-9895-9643EC15B863}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{7F25CA0A-5C43-004A-A393-E421BFACAA52}"/>
+    <hyperlink ref="D15" r:id="rId21" xr:uid="{9D0342E2-4A4F-8541-9187-F591B7B95F18}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{5EC9057E-7E2F-054B-9BFA-4BB8E98B0DD0}"/>
+    <hyperlink ref="D17" r:id="rId23" xr:uid="{C3A5539B-6849-D945-A7BB-77A7EDC4D3D9}"/>
+    <hyperlink ref="D16" r:id="rId24" xr:uid="{60BB5B0F-DE3A-8D43-A652-FADFFD64FE25}"/>
+    <hyperlink ref="D9" r:id="rId25" xr:uid="{3073512B-F9DC-A14B-B3EA-C2014BF423A4}"/>
+    <hyperlink ref="D8" r:id="rId26" xr:uid="{59933944-F460-4849-A2FD-E3B84790F8B4}"/>
+    <hyperlink ref="D7" r:id="rId27" xr:uid="{38A855CF-E23F-BB42-8B24-74E7A9EF8CEF}"/>
+    <hyperlink ref="D6" r:id="rId28" xr:uid="{15DC309C-7C10-9A4F-A7E8-F04B802166B3}"/>
+    <hyperlink ref="D5" r:id="rId29" xr:uid="{154F6F6A-01A7-864B-B90A-A1CFB08BCAAF}"/>
+    <hyperlink ref="D4" r:id="rId30" xr:uid="{E7F8E955-587A-FA49-BF00-E332D354CADE}"/>
+    <hyperlink ref="D3" r:id="rId31" xr:uid="{982898E0-BA38-3040-B6A2-D3091E7EA3F3}"/>
+    <hyperlink ref="D2" r:id="rId32" xr:uid="{1AE7371D-46D4-D247-9709-E64F1333C37F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65129191-91CA-CE48-952F-568EDACFAB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5767E9-4CEE-4543-ADEA-EB463C2B4C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
   <si>
     <t>Publicação</t>
   </si>
@@ -285,6 +285,24 @@
   </si>
   <si>
     <t>Bulgária</t>
+  </si>
+  <si>
+    <t>Destaque no I congresso de Saúde Coletiva do Maranhão e da III Mostra Cientifica da SES-MA</t>
+  </si>
+  <si>
+    <t>https://saoluis.edufor.edu.br/artigo/professora-edufor-destaque-congresso-saude-coletiva-maranhao-cientifica</t>
+  </si>
+  <si>
+    <t>Profissionais são premiados por experiências de sucesso no 1º Congresso de Saúde Coletiva do Maranhão e III Mostra Científica da SES/MA</t>
+  </si>
+  <si>
+    <t>https://www.ma.gov.br/noticias/profissionais-sao-premiados-por-experiencias-de-sucesso-no-1-congresso-de-saude-coletiva-do-maranhao-e-iii-mostra-cientifica-da-ses-ma</t>
+  </si>
+  <si>
+    <t>PROFISSIONAIS SÃO PREMIADOS POR EXPERIÊNCIAS DE SUCESSO NO 1º CONGRESSO DE SAÚDE COLETIVA DO MARANHÃO E III MOSTRA CIENTÍFICA DA SES/MA</t>
+  </si>
+  <si>
+    <t>https://www.saude.ma.gov.br/destaques/profissionais-sao-premiados-por-experiencias-de-sucesso-no-1o-congresso-de-saude-coletiva-do-maranhao-e-iii-mostra-cientifica-da-ses-ma/</t>
   </si>
 </sst>
 </file>
@@ -657,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,13 +737,13 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -733,13 +751,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -789,13 +807,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -831,13 +849,13 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -887,13 +905,13 @@
         <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -901,13 +919,13 @@
         <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -929,13 +947,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -971,13 +989,13 @@
         <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -985,13 +1003,13 @@
         <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -999,13 +1017,13 @@
         <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1027,13 +1045,13 @@
         <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1041,13 +1059,13 @@
         <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1055,13 +1073,13 @@
         <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1069,13 +1087,13 @@
         <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,55 +1101,55 @@
         <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1139,49 +1157,98 @@
         <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+    <sortCondition ref="A2:A37"/>
+    <sortCondition ref="B2:B37"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D34" r:id="rId1" xr:uid="{7FAF5D77-80BB-4A4B-9BD5-479AE66A7FCF}"/>
-    <hyperlink ref="D32" r:id="rId2" display="https://www.into.saude.gov.br/pesquisa/publicacoes/artigos-cientificos/566-neuropathic-like-symptoms-and-central-sensitization-related-signs-and-symptoms-negatively-affect-the-functional-performance-of-patients-with-knee-osteoarthritis-a-cross-sectional-study" xr:uid="{7A3518AB-36A9-3E4F-A53C-64CBF87177FF}"/>
-    <hyperlink ref="D33" r:id="rId3" xr:uid="{2419A15F-AA7D-5241-8696-A1B517F17416}"/>
-    <hyperlink ref="D31" r:id="rId4" xr:uid="{56BF22BC-FD68-4844-A29B-117A2EDDAA13}"/>
-    <hyperlink ref="D30" r:id="rId5" xr:uid="{4CB9679B-6916-5546-81A0-BE462F01C707}"/>
-    <hyperlink ref="D28" r:id="rId6" xr:uid="{599D6024-A8A7-224F-8F2A-DD4E4DD3ADEF}"/>
-    <hyperlink ref="D27" r:id="rId7" xr:uid="{31A515F2-ECBE-C149-A96D-28D5AE324BD8}"/>
-    <hyperlink ref="D29" r:id="rId8" xr:uid="{4E36A3D7-54FB-554F-8112-AB155876C9B8}"/>
+    <hyperlink ref="D37" r:id="rId1" xr:uid="{7FAF5D77-80BB-4A4B-9BD5-479AE66A7FCF}"/>
+    <hyperlink ref="D36" r:id="rId2" display="https://www.into.saude.gov.br/pesquisa/publicacoes/artigos-cientificos/566-neuropathic-like-symptoms-and-central-sensitization-related-signs-and-symptoms-negatively-affect-the-functional-performance-of-patients-with-knee-osteoarthritis-a-cross-sectional-study" xr:uid="{7A3518AB-36A9-3E4F-A53C-64CBF87177FF}"/>
+    <hyperlink ref="D34" r:id="rId3" xr:uid="{2419A15F-AA7D-5241-8696-A1B517F17416}"/>
+    <hyperlink ref="D35" r:id="rId4" xr:uid="{56BF22BC-FD68-4844-A29B-117A2EDDAA13}"/>
+    <hyperlink ref="D29" r:id="rId5" xr:uid="{4CB9679B-6916-5546-81A0-BE462F01C707}"/>
+    <hyperlink ref="D30" r:id="rId6" xr:uid="{599D6024-A8A7-224F-8F2A-DD4E4DD3ADEF}"/>
+    <hyperlink ref="D31" r:id="rId7" xr:uid="{31A515F2-ECBE-C149-A96D-28D5AE324BD8}"/>
+    <hyperlink ref="D28" r:id="rId8" xr:uid="{4E36A3D7-54FB-554F-8112-AB155876C9B8}"/>
     <hyperlink ref="D25" r:id="rId9" xr:uid="{2B8F926B-B369-D446-AE6A-1A6D21318EEA}"/>
-    <hyperlink ref="D24" r:id="rId10" xr:uid="{3C353235-8DAB-1F42-87F9-8894F5B95111}"/>
-    <hyperlink ref="D23" r:id="rId11" xr:uid="{4A73298F-F020-2040-84A4-55E4508C10D3}"/>
-    <hyperlink ref="D26" r:id="rId12" xr:uid="{F8AE0D44-64B2-E946-8556-AA2357702FB8}"/>
+    <hyperlink ref="D26" r:id="rId10" xr:uid="{3C353235-8DAB-1F42-87F9-8894F5B95111}"/>
+    <hyperlink ref="D24" r:id="rId11" xr:uid="{4A73298F-F020-2040-84A4-55E4508C10D3}"/>
+    <hyperlink ref="D23" r:id="rId12" xr:uid="{F8AE0D44-64B2-E946-8556-AA2357702FB8}"/>
     <hyperlink ref="D21" r:id="rId13" xr:uid="{EABD1383-6C5F-234B-9594-558C0F9AC46E}"/>
-    <hyperlink ref="D22" r:id="rId14" xr:uid="{9AAE8C4B-1B0F-3E44-B283-746283EC2E9D}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{9AAE8C4B-1B0F-3E44-B283-746283EC2E9D}"/>
     <hyperlink ref="D18" r:id="rId15" xr:uid="{E0D00FB4-4C96-D446-9163-7DF716F9CD67}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{796EEEC2-1766-FF4D-AC18-FD885BC3DCA6}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{796EEEC2-1766-FF4D-AC18-FD885BC3DCA6}"/>
     <hyperlink ref="D13" r:id="rId17" xr:uid="{DC997CD0-5B81-654C-A1FD-C1989D74FD3B}"/>
     <hyperlink ref="D10" r:id="rId18" xr:uid="{FF9F8AF8-A9E3-D940-B570-AD55F10BFCDA}"/>
     <hyperlink ref="D11" r:id="rId19" xr:uid="{F7159C91-5E0A-8E40-9895-9643EC15B863}"/>
     <hyperlink ref="D14" r:id="rId20" xr:uid="{7F25CA0A-5C43-004A-A393-E421BFACAA52}"/>
     <hyperlink ref="D15" r:id="rId21" xr:uid="{9D0342E2-4A4F-8541-9187-F591B7B95F18}"/>
-    <hyperlink ref="D12" r:id="rId22" xr:uid="{5EC9057E-7E2F-054B-9BFA-4BB8E98B0DD0}"/>
-    <hyperlink ref="D17" r:id="rId23" xr:uid="{C3A5539B-6849-D945-A7BB-77A7EDC4D3D9}"/>
-    <hyperlink ref="D16" r:id="rId24" xr:uid="{60BB5B0F-DE3A-8D43-A652-FADFFD64FE25}"/>
-    <hyperlink ref="D9" r:id="rId25" xr:uid="{3073512B-F9DC-A14B-B3EA-C2014BF423A4}"/>
+    <hyperlink ref="D9" r:id="rId22" xr:uid="{5EC9057E-7E2F-054B-9BFA-4BB8E98B0DD0}"/>
+    <hyperlink ref="D16" r:id="rId23" xr:uid="{C3A5539B-6849-D945-A7BB-77A7EDC4D3D9}"/>
+    <hyperlink ref="D12" r:id="rId24" xr:uid="{60BB5B0F-DE3A-8D43-A652-FADFFD64FE25}"/>
+    <hyperlink ref="D17" r:id="rId25" xr:uid="{3073512B-F9DC-A14B-B3EA-C2014BF423A4}"/>
     <hyperlink ref="D8" r:id="rId26" xr:uid="{59933944-F460-4849-A2FD-E3B84790F8B4}"/>
     <hyperlink ref="D7" r:id="rId27" xr:uid="{38A855CF-E23F-BB42-8B24-74E7A9EF8CEF}"/>
     <hyperlink ref="D6" r:id="rId28" xr:uid="{15DC309C-7C10-9A4F-A7E8-F04B802166B3}"/>
-    <hyperlink ref="D5" r:id="rId29" xr:uid="{154F6F6A-01A7-864B-B90A-A1CFB08BCAAF}"/>
-    <hyperlink ref="D4" r:id="rId30" xr:uid="{E7F8E955-587A-FA49-BF00-E332D354CADE}"/>
+    <hyperlink ref="D4" r:id="rId29" xr:uid="{154F6F6A-01A7-864B-B90A-A1CFB08BCAAF}"/>
+    <hyperlink ref="D5" r:id="rId30" xr:uid="{E7F8E955-587A-FA49-BF00-E332D354CADE}"/>
     <hyperlink ref="D3" r:id="rId31" xr:uid="{982898E0-BA38-3040-B6A2-D3091E7EA3F3}"/>
     <hyperlink ref="D2" r:id="rId32" xr:uid="{1AE7371D-46D4-D247-9709-E64F1333C37F}"/>
+    <hyperlink ref="D27" r:id="rId33" xr:uid="{A079C1A9-0EF2-DF4B-9899-8E77ED86B870}"/>
+    <hyperlink ref="D32" r:id="rId34" xr:uid="{0F188F43-4C12-4F42-B9EF-5A07C1AC7E8F}"/>
+    <hyperlink ref="D33" r:id="rId35" xr:uid="{30C07ACD-FD2F-4940-B38E-F6358C660CB5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5767E9-4CEE-4543-ADEA-EB463C2B4C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EDCA07-2C27-E246-9032-F52BE48EE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>Publicação</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>https://www.saude.ma.gov.br/destaques/profissionais-sao-premiados-por-experiencias-de-sucesso-no-1o-congresso-de-saude-coletiva-do-maranhao-e-iii-mostra-cientifica-da-ses-ma/</t>
+  </si>
+  <si>
+    <t>https://www1.folha.uol.com.br/equilibrioesaude/2024/10/por-que-variar-postura-e-mais-importante-do-que-encontrar-uma-posicao-ideal.shtml</t>
+  </si>
+  <si>
+    <t>Por que variar postura é mais importante do que encontrar uma posição ideal</t>
   </si>
 </sst>
 </file>
@@ -379,9 +385,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,7 +425,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -525,7 +531,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,6 +1212,20 @@
       </c>
       <c r="D37" s="3" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1249,6 +1269,7 @@
     <hyperlink ref="D27" r:id="rId33" xr:uid="{A079C1A9-0EF2-DF4B-9899-8E77ED86B870}"/>
     <hyperlink ref="D32" r:id="rId34" xr:uid="{0F188F43-4C12-4F42-B9EF-5A07C1AC7E8F}"/>
     <hyperlink ref="D33" r:id="rId35" xr:uid="{30C07ACD-FD2F-4940-B38E-F6358C660CB5}"/>
+    <hyperlink ref="D38" r:id="rId36" xr:uid="{A6BA455B-9955-C04E-8447-45D7E0B54FC1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EDCA07-2C27-E246-9032-F52BE48EE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A0AF5-163A-0947-A4C0-1A4A2E976DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
   <si>
     <t>Publicação</t>
   </si>
@@ -309,6 +309,15 @@
   </si>
   <si>
     <t>Por que variar postura é mais importante do que encontrar uma posição ideal</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Cognitive functional therapy reduces pain and disability in chronic low back pain patients, and its effects are not attributable to placebo</t>
+  </si>
+  <si>
+    <t>https://blogs.bmj.com/bjsm/2025/07/07/cognitive-functional-therapy-reduces-pain-and-disability-in-chronic-low-back-pain-patients-and-its-effects-are-not-attributable-to-placebo/</t>
   </si>
 </sst>
 </file>
@@ -681,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1226,6 +1235,20 @@
       </c>
       <c r="D38" s="3" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1270,6 +1293,7 @@
     <hyperlink ref="D32" r:id="rId34" xr:uid="{0F188F43-4C12-4F42-B9EF-5A07C1AC7E8F}"/>
     <hyperlink ref="D33" r:id="rId35" xr:uid="{30C07ACD-FD2F-4940-B38E-F6358C660CB5}"/>
     <hyperlink ref="D38" r:id="rId36" xr:uid="{A6BA455B-9955-C04E-8447-45D7E0B54FC1}"/>
+    <hyperlink ref="D39" r:id="rId37" xr:uid="{BCBCC643-0AED-E746-9F67-9FBB2C7533CD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A0AF5-163A-0947-A4C0-1A4A2E976DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AADB53-7A79-CD4D-B27C-23FF2148C7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1060" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blogs" sheetId="17" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>Publicação</t>
   </si>
@@ -318,6 +318,21 @@
   </si>
   <si>
     <t>https://blogs.bmj.com/bjsm/2025/07/07/cognitive-functional-therapy-reduces-pain-and-disability-in-chronic-low-back-pain-patients-and-its-effects-are-not-attributable-to-placebo/</t>
+  </si>
+  <si>
+    <t>https://www.thetribune.ca/sci-tech/a-new-approach-to-chronic-pain-management-in-children-and-teens-12082025/</t>
+  </si>
+  <si>
+    <t>A new approach to chronic pain management in children and teens</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>https://www.uepa.br/content/aula-magna-do-ppgreab-inteligencia-artificial-na-academia</t>
+  </si>
+  <si>
+    <t>Aula Magna do PPGREAB: Inteligência Artificial na Academia</t>
   </si>
 </sst>
 </file>
@@ -690,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,6 +1264,34 @@
       </c>
       <c r="D39" s="3" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1294,6 +1337,8 @@
     <hyperlink ref="D33" r:id="rId35" xr:uid="{30C07ACD-FD2F-4940-B38E-F6358C660CB5}"/>
     <hyperlink ref="D38" r:id="rId36" xr:uid="{A6BA455B-9955-C04E-8447-45D7E0B54FC1}"/>
     <hyperlink ref="D39" r:id="rId37" xr:uid="{BCBCC643-0AED-E746-9F67-9FBB2C7533CD}"/>
+    <hyperlink ref="D40" r:id="rId38" xr:uid="{8EFD0861-256C-D446-82E2-EE3387B93EA3}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{9DDB6CBB-D6E0-EA4A-BD1B-FD985256296D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AADB53-7A79-CD4D-B27C-23FF2148C7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE8567D-2340-E341-B17D-8F49C07C1BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
   <si>
     <t>Publicação</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Aula Magna do PPGREAB: Inteligência Artificial na Academia</t>
+  </si>
+  <si>
+    <t>Ressonância para dor crônica? Exames de imagem nem sempre revelam causas</t>
+  </si>
+  <si>
+    <t>https://www.uol.com.br/vivabem/colunas/opiniao/2025/09/05/ressonancia-para-dor-cronica-exames-de-imagem-nem-sempre-revelam-causas.htm</t>
   </si>
 </sst>
 </file>
@@ -705,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,6 +1298,20 @@
       </c>
       <c r="D41" s="3" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1339,6 +1359,7 @@
     <hyperlink ref="D39" r:id="rId37" xr:uid="{BCBCC643-0AED-E746-9F67-9FBB2C7533CD}"/>
     <hyperlink ref="D40" r:id="rId38" xr:uid="{8EFD0861-256C-D446-82E2-EE3387B93EA3}"/>
     <hyperlink ref="D41" r:id="rId39" xr:uid="{9DDB6CBB-D6E0-EA4A-BD1B-FD985256296D}"/>
+    <hyperlink ref="D42" r:id="rId40" xr:uid="{FF1ABF66-63FC-E34A-88EC-1DE264058690}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE8567D-2340-E341-B17D-8F49C07C1BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCFB7EE-D8C0-D14D-BD73-41335EE94820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
   <si>
     <t>Publicação</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>https://www.uol.com.br/vivabem/colunas/opiniao/2025/09/05/ressonancia-para-dor-cronica-exames-de-imagem-nem-sempre-revelam-causas.htm</t>
+  </si>
+  <si>
+    <t>https://papororaima.com.br/noticia/456/tecnologias-modernas-aceleram-recuperacao-de-saude-e-tornam-reabilitacoes-mais-eficazes</t>
+  </si>
+  <si>
+    <t>Tecnologias modernas aceleram recuperação de saúde e tornam reabilitações mais eficazes</t>
   </si>
 </sst>
 </file>
@@ -711,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1312,6 +1318,20 @@
       </c>
       <c r="D42" s="3" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1360,6 +1380,7 @@
     <hyperlink ref="D40" r:id="rId38" xr:uid="{8EFD0861-256C-D446-82E2-EE3387B93EA3}"/>
     <hyperlink ref="D41" r:id="rId39" xr:uid="{9DDB6CBB-D6E0-EA4A-BD1B-FD985256296D}"/>
     <hyperlink ref="D42" r:id="rId40" xr:uid="{FF1ABF66-63FC-E34A-88EC-1DE264058690}"/>
+    <hyperlink ref="D43" r:id="rId41" xr:uid="{1EF918EE-6765-A345-B3FB-956B76B81A79}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCFB7EE-D8C0-D14D-BD73-41335EE94820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D8BFA-5502-4D42-B0B4-CD282A06D251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>Publicação</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>Tecnologias modernas aceleram recuperação de saúde e tornam reabilitações mais eficazes</t>
+  </si>
+  <si>
+    <t>PALESTRA GRATUITA APRESENTA ABORDAGEM INOVADORA NO TRATAMENTO DA DOR LOMBAR CRÔNICA</t>
+  </si>
+  <si>
+    <t>https://jornaldeitaipava.com.br/index.php/2025/11/14/palestra-gratuita-apresenta-abordagem-inovadora-no-tratamento-da-dor-lombar-cronica/</t>
   </si>
 </sst>
 </file>
@@ -717,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1332,6 +1338,20 @@
       </c>
       <c r="D43" s="3" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1381,6 +1401,7 @@
     <hyperlink ref="D41" r:id="rId39" xr:uid="{9DDB6CBB-D6E0-EA4A-BD1B-FD985256296D}"/>
     <hyperlink ref="D42" r:id="rId40" xr:uid="{FF1ABF66-63FC-E34A-88EC-1DE264058690}"/>
     <hyperlink ref="D43" r:id="rId41" xr:uid="{1EF918EE-6765-A345-B3FB-956B76B81A79}"/>
+    <hyperlink ref="D44" r:id="rId42" xr:uid="{019A228A-E4F1-B14D-B36B-EB7979E5AFD5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blogs externos.xlsx
+++ b/docs/PPG/Blogs externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D8BFA-5502-4D42-B0B4-CD282A06D251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0324625-A415-174A-BF2A-1EA91D400F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="107">
   <si>
     <t>Publicação</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>https://jornaldeitaipava.com.br/index.php/2025/11/14/palestra-gratuita-apresenta-abordagem-inovadora-no-tratamento-da-dor-lombar-cronica/</t>
+  </si>
+  <si>
+    <t>HSU innovation chosen for global WHO showcase on traditional medicine</t>
+  </si>
+  <si>
+    <t>https://www.hsu.ac.uk/hsu-innovation-chosen-for-global-who-showcase-on-traditional-medicine/</t>
   </si>
 </sst>
 </file>
@@ -723,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7B3C5-88EC-8F41-9FD9-49FAABD7FF8A}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1352,6 +1358,20 @@
       </c>
       <c r="D44" s="3" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1402,6 +1422,7 @@
     <hyperlink ref="D42" r:id="rId40" xr:uid="{FF1ABF66-63FC-E34A-88EC-1DE264058690}"/>
     <hyperlink ref="D43" r:id="rId41" xr:uid="{1EF918EE-6765-A345-B3FB-956B76B81A79}"/>
     <hyperlink ref="D44" r:id="rId42" xr:uid="{019A228A-E4F1-B14D-B36B-EB7979E5AFD5}"/>
+    <hyperlink ref="D45" r:id="rId43" xr:uid="{B619F7DE-B7AA-1D42-866A-2A495D8AB900}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
